--- a/base.xlsx
+++ b/base.xlsx
@@ -12,14 +12,14 @@
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Спіс тэрмінаў'!$A$1:$D$2038</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Стайлгайд'!$A$1:$C$24</definedName>
     <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Карысныя спасылкі'!$A$1:$C$15</definedName>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Прапанаваныя тэрміны'!$A$1:$E$1078</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'Прапанаваныя тэрміны'!$A$1:$E$1082</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3593" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="2833">
   <si>
     <t>тэрмін на мове арыгінала</t>
   </si>
@@ -8699,6 +8699,36 @@
   </si>
   <si>
     <t>Трэба адрозніваць ідэнтыфікацыю, аўтэнтыфікацыю й аўтарызацыю.</t>
+  </si>
+  <si>
+    <t>reconnect</t>
+  </si>
+  <si>
+    <t>перападлучыцца</t>
+  </si>
+  <si>
+    <t>перападключыцца</t>
+  </si>
+  <si>
+    <t>specify</t>
+  </si>
+  <si>
+    <t>пазначыць</t>
+  </si>
+  <si>
+    <t>вымаць</t>
+  </si>
+  <si>
+    <t>выдаляць</t>
+  </si>
+  <si>
+    <t>выдаляць=delete</t>
+  </si>
+  <si>
+    <t>[з пры ад]мантаваць</t>
+  </si>
+  <si>
+    <t>у кантэксце працы з файлавымі сістэмамі толькі так</t>
   </si>
 </sst>
 </file>
@@ -39081,32 +39111,61 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="67">
+        <v>44546.242979120376</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>2825</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+      <c r="A58" s="64">
+        <v>44546.36262133102</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C58" s="66"/>
+      <c r="D58" s="65" t="s">
+        <v>2827</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="67">
+        <v>44546.40107814815</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D59" s="68" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>2830</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+      <c r="A60" s="64">
+        <v>44546.56326886574</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D60" s="65" t="s">
+        <v>2832</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="8"/>
@@ -46234,19 +46293,47 @@
       <c r="D1078" s="19"/>
       <c r="E1078" s="19"/>
     </row>
+    <row r="1079">
+      <c r="A1079" s="8"/>
+      <c r="B1079" s="8"/>
+      <c r="C1079" s="8"/>
+      <c r="D1079" s="8"/>
+      <c r="E1079" s="8"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="19"/>
+      <c r="B1080" s="19"/>
+      <c r="C1080" s="19"/>
+      <c r="D1080" s="19"/>
+      <c r="E1080" s="19"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="8"/>
+      <c r="B1081" s="8"/>
+      <c r="C1081" s="8"/>
+      <c r="D1081" s="8"/>
+      <c r="E1081" s="8"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="19"/>
+      <c r="B1082" s="19"/>
+      <c r="C1082" s="19"/>
+      <c r="D1082" s="19"/>
+      <c r="E1082" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$E$1078"/>
-  <conditionalFormatting sqref="C1:C1078">
+  <autoFilter ref="$A$1:$E$1082"/>
+  <conditionalFormatting sqref="C1:C1082">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1078">
+  <conditionalFormatting sqref="C1:C1082">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" ! ">
       <formula>NOT(ISERROR(SEARCH((" ! "),(C1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1078">
+  <conditionalFormatting sqref="C1:C1082">
     <cfRule type="beginsWith" dxfId="2" priority="3" operator="beginsWith" text="!">
       <formula>LEFT((C1),LEN("!"))=("!")</formula>
     </cfRule>
